--- a/Output/2023/116-17.18.3-1830-SG_STT_NSDSIMPL-1132.xlsx
+++ b/Output/2023/116-17.18.3-1830-SG_STT_NSDSIMPL-1132.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1865,31 +1865,19 @@
     <t xml:space="preserve">42</t>
   </si>
   <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">43</t>
   </si>
   <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2579,7 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
@@ -2741,7 +2729,7 @@
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
@@ -2891,7 +2879,7 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
@@ -2941,7 +2929,7 @@
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
@@ -3041,7 +3029,7 @@
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
@@ -3691,7 +3679,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>616</v>
+        <v>380</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
@@ -3741,7 +3729,7 @@
         <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>617</v>
+        <v>506</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
@@ -3791,7 +3779,7 @@
         <v>2022</v>
       </c>
       <c r="G32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H32" t="n">
         <v>2022</v>
@@ -3841,7 +3829,7 @@
         <v>2022</v>
       </c>
       <c r="G33" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H33" t="n">
         <v>2022</v>
@@ -3891,7 +3879,7 @@
         <v>2022</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
@@ -16741,7 +16729,7 @@
         <v>2021</v>
       </c>
       <c r="G291" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H291" t="n">
         <v>2021</v>
@@ -16891,7 +16879,7 @@
         <v>2021</v>
       </c>
       <c r="G294" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H294" t="n">
         <v>2021</v>
@@ -17041,7 +17029,7 @@
         <v>2021</v>
       </c>
       <c r="G297" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
       <c r="H297" t="n">
         <v>2021</v>
@@ -17091,7 +17079,7 @@
         <v>2021</v>
       </c>
       <c r="G298" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
       <c r="H298" t="n">
         <v>2021</v>
@@ -17191,7 +17179,7 @@
         <v>2021</v>
       </c>
       <c r="G300" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H300" t="n">
         <v>2021</v>
@@ -17841,7 +17829,7 @@
         <v>2021</v>
       </c>
       <c r="G313" t="s">
-        <v>620</v>
+        <v>144</v>
       </c>
       <c r="H313" t="n">
         <v>2021</v>
@@ -17891,7 +17879,7 @@
         <v>2021</v>
       </c>
       <c r="G314" t="s">
-        <v>621</v>
+        <v>321</v>
       </c>
       <c r="H314" t="n">
         <v>2021</v>
@@ -18041,7 +18029,7 @@
         <v>2021</v>
       </c>
       <c r="G317" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H317" t="n">
         <v>2021</v>
@@ -30591,7 +30579,7 @@
         <v>2020</v>
       </c>
       <c r="G568" t="s">
-        <v>28</v>
+        <v>618</v>
       </c>
       <c r="H568" t="n">
         <v>2020</v>
@@ -30641,7 +30629,7 @@
         <v>2020</v>
       </c>
       <c r="G569" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H569" t="n">
         <v>2020</v>
@@ -30891,7 +30879,7 @@
         <v>2020</v>
       </c>
       <c r="G574" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H574" t="n">
         <v>2020</v>
@@ -31041,7 +31029,7 @@
         <v>2020</v>
       </c>
       <c r="G577" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H577" t="n">
         <v>2020</v>
@@ -31191,7 +31179,7 @@
         <v>2020</v>
       </c>
       <c r="G580" t="s">
-        <v>521</v>
+        <v>43</v>
       </c>
       <c r="H580" t="n">
         <v>2020</v>
@@ -31241,7 +31229,7 @@
         <v>2020</v>
       </c>
       <c r="G581" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H581" t="n">
         <v>2020</v>
@@ -31341,7 +31329,7 @@
         <v>2020</v>
       </c>
       <c r="G583" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H583" t="n">
         <v>2020</v>
@@ -31991,7 +31979,7 @@
         <v>2020</v>
       </c>
       <c r="G596" t="s">
-        <v>622</v>
+        <v>192</v>
       </c>
       <c r="H596" t="n">
         <v>2020</v>
@@ -32041,7 +32029,7 @@
         <v>2020</v>
       </c>
       <c r="G597" t="s">
-        <v>623</v>
+        <v>521</v>
       </c>
       <c r="H597" t="n">
         <v>2020</v>
@@ -32191,7 +32179,7 @@
         <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H600" t="n">
         <v>2020</v>
@@ -35341,7 +35329,7 @@
         <v>2020</v>
       </c>
       <c r="G663" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="H663" t="n">
         <v>2020</v>
@@ -44741,7 +44729,7 @@
         <v>2019</v>
       </c>
       <c r="G851" t="s">
-        <v>19</v>
+        <v>619</v>
       </c>
       <c r="H851" t="n">
         <v>2019</v>
@@ -44791,7 +44779,7 @@
         <v>2019</v>
       </c>
       <c r="G852" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H852" t="n">
         <v>2019</v>
@@ -45041,7 +45029,7 @@
         <v>2019</v>
       </c>
       <c r="G857" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H857" t="n">
         <v>2019</v>
@@ -45191,7 +45179,7 @@
         <v>2019</v>
       </c>
       <c r="G860" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H860" t="n">
         <v>2019</v>
@@ -45341,7 +45329,7 @@
         <v>2019</v>
       </c>
       <c r="G863" t="s">
-        <v>521</v>
+        <v>43</v>
       </c>
       <c r="H863" t="n">
         <v>2019</v>
@@ -45391,7 +45379,7 @@
         <v>2019</v>
       </c>
       <c r="G864" t="s">
-        <v>527</v>
+        <v>43</v>
       </c>
       <c r="H864" t="n">
         <v>2019</v>
@@ -45491,7 +45479,7 @@
         <v>2019</v>
       </c>
       <c r="G866" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H866" t="n">
         <v>2019</v>
@@ -45741,7 +45729,7 @@
         <v>2019</v>
       </c>
       <c r="G871" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H871" t="n">
         <v>2019</v>
@@ -46141,7 +46129,7 @@
         <v>2019</v>
       </c>
       <c r="G879" t="s">
-        <v>620</v>
+        <v>144</v>
       </c>
       <c r="H879" t="n">
         <v>2019</v>
@@ -46191,7 +46179,7 @@
         <v>2019</v>
       </c>
       <c r="G880" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="H880" t="n">
         <v>2019</v>
@@ -46341,7 +46329,7 @@
         <v>2019</v>
       </c>
       <c r="G883" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H883" t="n">
         <v>2019</v>
@@ -46491,7 +46479,7 @@
         <v>2019</v>
       </c>
       <c r="G886" t="s">
-        <v>527</v>
+        <v>54</v>
       </c>
       <c r="H886" t="n">
         <v>2019</v>
@@ -46941,7 +46929,7 @@
         <v>2019</v>
       </c>
       <c r="G895" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H895" t="n">
         <v>2019</v>
@@ -47891,7 +47879,7 @@
         <v>2019</v>
       </c>
       <c r="G914" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H914" t="n">
         <v>2019</v>
